--- a/tests/07_Data_Login_Lecturer.xlsx
+++ b/tests/07_Data_Login_Lecturer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4AE41-A353-46C8-A493-9DB9B5513593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3628D2-37A2-4A43-83D1-B120AB2BEEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>เข้าสู่ระบบสำเร็จ</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Check Item</t>
   </si>
   <si>
@@ -103,13 +100,16 @@
   </si>
   <si>
     <t>Close Browser</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +131,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -289,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,7 +646,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -692,8 +708,8 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
+      <c r="H2" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -725,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -745,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="20" t="s">
@@ -761,10 +777,10 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="21"/>
@@ -772,10 +788,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>7</v>
@@ -785,10 +801,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="15">
         <v>1234</v>
@@ -798,10 +814,10 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="21"/>
@@ -810,10 +826,10 @@
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="22"/>
